--- a/data/trans_camb/P9_2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P9_2-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>3,05</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 7,64</t>
+          <t>-5,37; 7,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 11,01</t>
+          <t>-2,91; 11,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 7,67</t>
+          <t>-2,35; 7,42</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>3,47%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 8,76</t>
+          <t>-5,65; 8,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 13,63</t>
+          <t>-3,26; 14,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 9,1</t>
+          <t>-2,57; 8,67</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,6</t>
+          <t>7,73</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>4,0</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 19,03</t>
+          <t>-5,3; 18,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 8,03</t>
+          <t>-9,56; 8,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 10,7</t>
+          <t>-3,85; 11,0</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,54%</t>
+          <t>-0,17%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>5,11%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 27,01</t>
+          <t>-6,0; 26,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,63; 10,91</t>
+          <t>-11,58; 10,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 14,69</t>
+          <t>-4,78; 14,93</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>-0,44</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 6,75</t>
+          <t>-13,17; 4,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 8,07</t>
+          <t>-3,24; 7,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 4,84</t>
+          <t>-6,08; 4,86</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,66%</t>
+          <t>-4,25%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>-0,52%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 8,37</t>
+          <t>-14,95; 5,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 9,86</t>
+          <t>-3,6; 8,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 5,86</t>
+          <t>-6,94; 5,88</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,7</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 5,41</t>
+          <t>-8,45; 6,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 8,62</t>
+          <t>-3,57; 8,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 4,64</t>
+          <t>-3,95; 5,31</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,68%</t>
+          <t>-1,22%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>0,85%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 6,83</t>
+          <t>-9,88; 7,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 10,96</t>
+          <t>-4,38; 11,06</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 5,81</t>
+          <t>-4,75; 6,63</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>7,26</t>
+          <t>6,6</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>5,16</t>
+          <t>4,68</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 17,62</t>
+          <t>-3,64; 16,15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 12,49</t>
+          <t>-6,34; 12,23</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 11,79</t>
+          <t>-1,24; 11,79</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>7,3%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 29,08</t>
+          <t>-4,88; 26,87</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 22,44</t>
+          <t>-9,52; 21,35</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 19,39</t>
+          <t>-1,87; 19,35</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3,79</t>
+          <t>5,63</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>4,11</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 15,52</t>
+          <t>-5,35; 16,57</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 10,84</t>
+          <t>-5,96; 11,56</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 10,15</t>
+          <t>-2,97; 11,68</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>9,67%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-12,55; 34,38</t>
+          <t>-10,16; 37,17</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-17,45; 32,13</t>
+          <t>-15,1; 34,05</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 25,51</t>
+          <t>-6,72; 29,96</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>2,59</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 6,49</t>
+          <t>-1,2; 6,59</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 5,85</t>
+          <t>-1,02; 6,15</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 5,24</t>
+          <t>0,19; 5,17</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,55%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 8,84</t>
+          <t>-1,56; 8,9</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 8,55</t>
+          <t>-1,42; 9,06</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 7,28</t>
+          <t>0,26; 7,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P9_2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P9_2-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,72</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,57</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,05</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.497412261611831</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5.044958247569442</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.65590028916668</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-5,37; 7,24</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,91; 11,98</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,35; 7,42</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-3.852490778148571</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.321751791155156</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.508011463213974</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,38%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,47%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>7.835206849088226</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>12.4459766190475</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>7.970225991615229</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-5,65; 8,24</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,26; 14,94</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,57; 8,67</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.02754131752491466</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.05931960609669423</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.04154079128012939</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>7,73</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,14</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,0</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.04003813839808095</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.02548442874643438</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.01668376257070232</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-5,3; 18,54</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-9,56; 8,02</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,85; 11,0</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.08950066380736188</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.1552447920833333</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.09335335110710219</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>9,87%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,17%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>5,11%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>8.662450524715481</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.08806749162895144</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>4.54381358674425</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-6,0; 26,41</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-11,58; 10,72</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-4,78; 14,93</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.396904364057744</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-9.051776268797806</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.92468887865725</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-3,6</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,59</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,44</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>19.4147678175732</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.356086780487118</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>11.45754839144584</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-13,17; 4,11</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,24; 7,33</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-6,08; 4,86</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.1105734931121716</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.001128590583629612</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.05810988020582664</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-4,25%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,02%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,52%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.0359791860307705</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.1108912182457756</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.03628643649106381</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-14,95; 5,08</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-3,6; 8,82</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-6,94; 5,88</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.277294827188068</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.1116381536294993</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.1536674390438909</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +775,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-1,01</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>2,27</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-2.710910170578917</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>2.313927712492569</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.1782072178584171</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-8,45; 6,1</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-3,57; 8,64</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-3,95; 5,31</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-12.57814116307971</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-3.549766774530928</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-5.718545016784988</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-1,22%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>2,81%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>0,85%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>5.120988579514895</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>7.284187347235649</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>5.024004340391945</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-9,88; 7,53</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-4,38; 11,06</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-4,75; 6,63</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.03200091519003641</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.02695908922060058</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.002089677266866036</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>6,6</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>2,92</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>4,68</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.1453525128346515</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.03778431336947796</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.06506657083187246</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-3,64; 16,15</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-6,34; 12,23</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-1,24; 11,79</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.06118384610782464</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.08728222815668289</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.06044694237576643</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>9,9%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>4,76%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>7,3%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-1.332160461749654</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>2.906476835764249</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.8738029229873545</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-4,88; 26,87</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-9,52; 21,35</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-1,87; 19,35</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-8.765776865380676</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-2.973551735531855</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-3.722456799694693</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>5,63</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>2,88</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>4,11</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>5.881733501286308</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>9.047623380310199</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>5.369493241117787</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-5,35; 16,57</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-5,96; 11,56</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-2,97; 11,68</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.016097899642693</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.03591979619458303</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.01068345122005293</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>11,46%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>7,66%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>9,67%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.1029891991682124</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.0359845426293749</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.04420324151969375</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-10,16; 37,17</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-15,1; 34,05</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-6,72; 29,96</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.07219637204372646</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.1163785801308718</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.06745422430233271</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +987,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>2,53</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>2,66</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>2,59</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>7.121023754232592</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>3.544097491456188</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>5.265567133329307</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-1,2; 6,59</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-1,02; 6,15</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>0,19; 5,17</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-3.089448954736178</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-6.325542915939781</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-0.6794117444093213</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>3,33%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>3,77%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>3,55%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>16.79767138710352</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>12.729249153951</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>12.39056954112533</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-1,56; 8,9</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-1,42; 9,06</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>0,26; 7,19</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.1069086684871031</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>0.05764533360314242</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.08218617706932008</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.04258377535924152</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.09360846353910438</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.00929413975304268</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>0.2721952047787674</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>0.2231929941670883</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.2072872510229367</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>4.599716663461074</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>1.99169905665515</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>3.152477757538557</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-7.240666357797762</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-7.427326995303675</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-3.781507374840396</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>16.0972719583711</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>10.92795066770074</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>11.02188891977775</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>0.09364393421854951</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>0.05306671865189367</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>0.07419260555970314</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>-0.1386633088374189</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-0.1801572064932004</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.08542768479764815</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>0.3564294092776833</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>0.3182303813734934</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>0.2829442618792777</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>2.800330737464163</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>2.724987508475674</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>2.761788442697621</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-0.8472744879747406</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-0.9490089731791644</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>0.3253052397441355</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>6.89534888120157</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>6.392313579194164</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>5.343423026465556</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>0.03691096852364284</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>0.03865593847222201</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>0.0377715716303499</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.01060565652836858</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.01286557342985606</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>0.004602004086322139</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>0.09373376018628432</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0.09362084408243189</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0.07432984734730191</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1224,14 +1303,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
